--- a/xlsx/country_comparison/solidarity_support_extended_mean.xlsx
+++ b/xlsx/country_comparison/solidarity_support_extended_mean.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -65,23 +68,23 @@
 vulnerable countries cope with climate Loss and damage</t>
   </si>
   <si>
+    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
+payments until they are more able to repay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expand Security Council to new permanent members (e.g.
+India, Brazil, African Union), restrict veto use</t>
+  </si>
+  <si>
     <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
 allocating revenues to countries based on sales</t>
   </si>
   <si>
-    <t xml:space="preserve">Expand Security Council to new permanent members (e.g.
-India, Brazil, African Union), restrict veto use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
-payments until they are more able to repay</t>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
   </si>
   <si>
     <t xml:space="preserve">International levy on shipping carbon emissions,
 returned to countries based on population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
   </si>
   <si>
     <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
@@ -461,13 +464,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.688070692194404</v>
+        <v>0.686465033529492</v>
       </c>
       <c r="C2" t="n">
         <v>0.829105003523608</v>
@@ -497,18 +503,21 @@
         <v>0.43467671690192</v>
       </c>
       <c r="L2" t="n">
+        <v>0.663985194495835</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.703761021752447</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.640978986610009</v>
+      <c r="N2" t="n">
+        <v>0.640920100928406</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.494698085419735</v>
+        <v>0.501984398521965</v>
       </c>
       <c r="C3" t="n">
         <v>0.575757575757576</v>
@@ -538,18 +547,21 @@
         <v>0.265591092846314</v>
       </c>
       <c r="L3" t="n">
+        <v>0.596930680039649</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.794198117239725</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.422180734203151</v>
+      <c r="N3" t="n">
+        <v>0.422308809717726</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.412518409425626</v>
+        <v>0.430409196660736</v>
       </c>
       <c r="C4" t="n">
         <v>0.457011980267794</v>
@@ -579,59 +591,65 @@
         <v>0.192156345298118</v>
       </c>
       <c r="L4" t="n">
+        <v>0.666375959335793</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.85524931908711</v>
       </c>
-      <c r="M4" t="n">
-        <v>0.321690642937632</v>
+      <c r="N4" t="n">
+        <v>0.321756048101479</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.363181148748159</v>
+        <v>0.344053647187628</v>
       </c>
       <c r="C5" t="n">
-        <v>0.465116279069767</v>
+        <v>0.354474982381959</v>
       </c>
       <c r="D5" t="n">
-        <v>0.472989584915836</v>
+        <v>0.192990020769688</v>
       </c>
       <c r="E5" t="n">
-        <v>0.426758680000507</v>
+        <v>0.148882177492379</v>
       </c>
       <c r="F5" t="n">
-        <v>0.791797773897916</v>
+        <v>0.63699224731715</v>
       </c>
       <c r="G5" t="n">
-        <v>0.228384151173381</v>
+        <v>0.396220150149398</v>
       </c>
       <c r="H5" t="n">
-        <v>0.498426814110758</v>
+        <v>0.530347555433164</v>
       </c>
       <c r="I5" t="n">
-        <v>0.485870949814896</v>
+        <v>0.421724564755278</v>
       </c>
       <c r="J5" t="n">
-        <v>0.174811044915976</v>
+        <v>0.228655539408773</v>
       </c>
       <c r="K5" t="n">
-        <v>0.223123315914851</v>
+        <v>0.150035589499553</v>
       </c>
       <c r="L5" t="n">
-        <v>0.530833388531733</v>
+        <v>0.38340162387244</v>
       </c>
       <c r="M5" t="n">
-        <v>0.249781845360372</v>
+        <v>0.829498637932723</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.258047211971733</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.360382916053019</v>
+        <v>0.335248256052524</v>
       </c>
       <c r="C6" t="n">
         <v>0.461240310077519</v>
@@ -661,141 +679,153 @@
         <v>0.147582101842148</v>
       </c>
       <c r="L6" t="n">
+        <v>0.00654400091373214</v>
+      </c>
+      <c r="M6" t="n">
         <v>0.609308133997403</v>
       </c>
-      <c r="M6" t="n">
-        <v>0.252333621263475</v>
+      <c r="N6" t="n">
+        <v>0.252087215759207</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.341089837997055</v>
+        <v>0.328589024223347</v>
       </c>
       <c r="C7" t="n">
-        <v>0.354474982381959</v>
+        <v>0.465116279069767</v>
       </c>
       <c r="D7" t="n">
-        <v>0.192990020769688</v>
+        <v>0.472989584915836</v>
       </c>
       <c r="E7" t="n">
-        <v>0.148882177492379</v>
+        <v>0.426758680000507</v>
       </c>
       <c r="F7" t="n">
-        <v>0.63699224731715</v>
+        <v>0.791797773897916</v>
       </c>
       <c r="G7" t="n">
-        <v>0.396220150149398</v>
+        <v>0.228384151173381</v>
       </c>
       <c r="H7" t="n">
-        <v>0.530347555433164</v>
+        <v>0.498426814110758</v>
       </c>
       <c r="I7" t="n">
-        <v>0.421724564755278</v>
+        <v>0.485870949814896</v>
       </c>
       <c r="J7" t="n">
-        <v>0.228655539408773</v>
+        <v>0.174811044915976</v>
       </c>
       <c r="K7" t="n">
-        <v>0.150035589499553</v>
+        <v>0.223123315914851</v>
       </c>
       <c r="L7" t="n">
-        <v>0.829498637932723</v>
+        <v>-0.12388965679271</v>
       </c>
       <c r="M7" t="n">
-        <v>0.258113484663428</v>
+        <v>0.530833388531733</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.249506556308181</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.313254786450663</v>
+        <v>0.325441357602299</v>
       </c>
       <c r="C8" t="n">
-        <v>0.405567300916138</v>
+        <v>0.320295983086681</v>
       </c>
       <c r="D8" t="n">
-        <v>0.506526534184808</v>
+        <v>0.233034713655876</v>
       </c>
       <c r="E8" t="n">
-        <v>0.313599558455335</v>
+        <v>0.265811882008148</v>
       </c>
       <c r="F8" t="n">
-        <v>0.546322756695602</v>
+        <v>0.479713313825981</v>
       </c>
       <c r="G8" t="n">
-        <v>0.150011689134294</v>
+        <v>0.0762488483083057</v>
       </c>
       <c r="H8" t="n">
-        <v>0.515525999865488</v>
+        <v>0.614577943816408</v>
       </c>
       <c r="I8" t="n">
-        <v>0.429632984549167</v>
+        <v>0.329627924956973</v>
       </c>
       <c r="J8" t="n">
-        <v>0.351403943487063</v>
+        <v>0.215601516824756</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0188310156555156</v>
+        <v>0.062262100614088</v>
       </c>
       <c r="L8" t="n">
-        <v>0.625075550597757</v>
+        <v>0.630975799362228</v>
       </c>
       <c r="M8" t="n">
-        <v>0.253406342686647</v>
+        <v>0.751452143604012</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.260707883435066</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.30220913107511</v>
+        <v>0.316135212809635</v>
       </c>
       <c r="C9" t="n">
-        <v>0.320295983086681</v>
+        <v>0.405567300916138</v>
       </c>
       <c r="D9" t="n">
-        <v>0.233034713655876</v>
+        <v>0.506526534184808</v>
       </c>
       <c r="E9" t="n">
-        <v>0.265811882008148</v>
+        <v>0.313599558455335</v>
       </c>
       <c r="F9" t="n">
-        <v>0.479713313825981</v>
+        <v>0.546322756695602</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0762488483083057</v>
+        <v>0.150011689134294</v>
       </c>
       <c r="H9" t="n">
-        <v>0.614577943816408</v>
+        <v>0.515525999865488</v>
       </c>
       <c r="I9" t="n">
-        <v>0.329627924956973</v>
+        <v>0.429632984549167</v>
       </c>
       <c r="J9" t="n">
-        <v>0.215601516824756</v>
+        <v>0.351403943487063</v>
       </c>
       <c r="K9" t="n">
-        <v>0.062262100614088</v>
+        <v>0.0188310156555156</v>
       </c>
       <c r="L9" t="n">
-        <v>0.751452143604012</v>
+        <v>0.356241425568155</v>
       </c>
       <c r="M9" t="n">
-        <v>0.260968162733409</v>
+        <v>0.625075550597757</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.253242228564643</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.282621502209131</v>
+        <v>0.31052415491994</v>
       </c>
       <c r="C10" t="n">
         <v>0.36645525017618</v>
@@ -825,18 +855,21 @@
         <v>0.0308357678252117</v>
       </c>
       <c r="L10" t="n">
+        <v>0.677911376140655</v>
+      </c>
+      <c r="M10" t="n">
         <v>0.689558758766624</v>
       </c>
-      <c r="M10" t="n">
-        <v>0.159594857333033</v>
+      <c r="N10" t="n">
+        <v>0.159422230689794</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0696612665684831</v>
+        <v>0.0619953469276037</v>
       </c>
       <c r="C11" t="n">
         <v>0.0916138125440451</v>
@@ -866,10 +899,13 @@
         <v>-0.0928582986299513</v>
       </c>
       <c r="L11" t="n">
+        <v>-0.0372928283234603</v>
+      </c>
+      <c r="M11" t="n">
         <v>0.443518183056329</v>
       </c>
-      <c r="M11" t="n">
-        <v>-0.00371379976446625</v>
+      <c r="N11" t="n">
+        <v>-0.00371332020131786</v>
       </c>
     </row>
   </sheetData>
